--- a/src/test/resources/Testdata/data.xlsx
+++ b/src/test/resources/Testdata/data.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -25,7 +24,7 @@
     <t>laptop</t>
   </si>
   <si>
-    <t>lakshmideepak188@gmail.com</t>
+    <t>lakshmideepak1809@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -378,7 +377,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/Testdata/data.xlsx
+++ b/src/test/resources/Testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="14010" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="6950" windowHeight="5640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -24,7 +25,7 @@
     <t>laptop</t>
   </si>
   <si>
-    <t>lakshmideepak1809@gmail.com</t>
+    <t>lakshmideepak18012@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -377,7 +378,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
